--- a/0_Fundamentals/Embedded_Qs_and_Data/0_5_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_5_Embedded_Qs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC230FEB-56EA-429C-BB47-461E8DCC35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F0A76-267D-4693-9E10-67CB9EC086AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1680" windowWidth="19950" windowHeight="13215" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="1272" yWindow="312" windowWidth="21768" windowHeight="11412" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,16 +651,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -688,7 +688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -702,7 +702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -714,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -739,35 +739,35 @@
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -785,35 +785,35 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -831,35 +831,35 @@
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -877,40 +877,40 @@
       <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -928,40 +928,40 @@
       <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -980,45 +980,45 @@
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1036,16 +1036,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1120,16 +1120,16 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="31.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1218,15 +1218,15 @@
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="31.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1297,15 +1297,15 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="31.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>133.30000000000001</v>
       </c>
@@ -1325,21 +1325,21 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1359,15 +1359,15 @@
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1434,15 +1434,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1497,18 +1497,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
@@ -1519,30 +1519,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0.66700000000000004</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1562,40 +1562,40 @@
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1613,45 +1613,45 @@
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
